--- a/05-Power-Budget/Power Budget.xlsx
+++ b/05-Power-Budget/Power Budget.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
   <si>
     <t>Power Budget</t>
   </si>
@@ -100,7 +100,34 @@
     <t>0V - 60V</t>
   </si>
   <si>
-    <t xml:space="preserve"> +12V Power Rail</t>
+    <t>H-Bridge</t>
+  </si>
+  <si>
+    <t>FAN8100N</t>
+  </si>
+  <si>
+    <t>1.8V -  9V</t>
+  </si>
+  <si>
+    <t>DC-Motor</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>XBUG53D</t>
+  </si>
+  <si>
+    <t>9V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +9V Power Rail</t>
+  </si>
+  <si>
+    <t>2.2V - 9V</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal </t>
@@ -112,6 +139,9 @@
     <t>Total Current Required on +12V Rail</t>
   </si>
   <si>
+    <t>Wall Power Supply</t>
+  </si>
+  <si>
     <t>Total Remaining Current Available on +12V Rail</t>
   </si>
   <si>
@@ -121,6 +151,9 @@
     <t>1.7V -5.1V</t>
   </si>
   <si>
+    <t>1.8V - 9V</t>
+  </si>
+  <si>
     <t>Total Current Required on +5V Rail</t>
   </si>
   <si>
@@ -172,13 +205,13 @@
     <t>Plug-in Wall Supply</t>
   </si>
   <si>
-    <t>(full part number)</t>
+    <t>WR9HD1333CCP-F(R6B)</t>
   </si>
   <si>
     <t>110VAC</t>
   </si>
   <si>
-    <t xml:space="preserve"> +24V</t>
+    <t xml:space="preserve"> 9V</t>
   </si>
   <si>
     <t>Power Rails Connected to External Power Source 1</t>
@@ -459,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -531,12 +564,24 @@
     <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -550,7 +595,10 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
@@ -576,6 +624,12 @@
     <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -583,20 +637,11 @@
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
@@ -624,7 +669,7 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
@@ -639,6 +684,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -905,6 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1077,53 +1126,95 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="G11" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="B12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="28">
+        <v>11696.0</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>500.0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>500.0</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>150.0</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="4"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="9"/>
@@ -1136,8 +1227,8 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="31" t="s">
-        <v>22</v>
+      <c r="A17" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>8</v>
@@ -1163,14 +1254,23 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22">
-        <f t="shared" ref="G18:G22" si="2">E18*F18</f>
-        <v>0</v>
+      <c r="B18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>300.0</v>
+      </c>
+      <c r="G18" s="26">
+        <v>100.0</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>18</v>
@@ -1178,14 +1278,24 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="36">
+        <v>11696.0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>500.0</v>
+      </c>
       <c r="G19" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G19:G22" si="2">E19*F19</f>
+        <v>500</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>18</v>
@@ -1193,14 +1303,24 @@
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>50.0</v>
+      </c>
       <c r="G20" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>18</v>
@@ -1237,12 +1357,12 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="32" t="s">
-        <v>23</v>
+      <c r="B23" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="G23" s="22">
         <f>SUM(G18:G22)</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>18</v>
@@ -1250,72 +1370,77 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="33">
+      <c r="B24" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="38">
         <v>0.25</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35" t="s">
-        <v>25</v>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="G25" s="22">
         <f>G23*(1+G24)</f>
-        <v>0</v>
+        <v>937.5</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="22"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39">
-        <f>E27*F27</f>
-        <v>0</v>
+      <c r="A27" s="41"/>
+      <c r="B27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1000.0</v>
+      </c>
+      <c r="G27" s="46">
+        <v>1000.0</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="39">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="44">
         <f>G27-G25</f>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>27</v>
+      <c r="A29" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>8</v>
@@ -1332,10 +1457,10 @@
       <c r="F29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="51" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1347,17 +1472,17 @@
       <c r="C30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="44">
+      <c r="D30" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="25">
         <v>1.0</v>
       </c>
       <c r="F30" s="18">
         <v>500.0</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" ref="G30:G34" si="3">E30*F30</f>
+        <f t="shared" ref="G30:G31" si="3">E30*F30</f>
         <v>500</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -1366,19 +1491,19 @@
     </row>
     <row r="31" ht="15.0" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="31">
         <v>1.0</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="27">
         <v>200.0</v>
       </c>
       <c r="G31" s="22">
@@ -1391,14 +1516,23 @@
     </row>
     <row r="32" ht="15.0" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="G32" s="26">
+        <v>100.0</v>
       </c>
       <c r="H32" s="23" t="s">
         <v>18</v>
@@ -1412,7 +1546,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
       <c r="G33" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G33:G34" si="4">E33*F33</f>
         <v>0</v>
       </c>
       <c r="H33" s="23" t="s">
@@ -1427,7 +1561,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H34" s="23" t="s">
@@ -1436,12 +1570,12 @@
     </row>
     <row r="35" ht="15.0" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="32" t="s">
-        <v>23</v>
+      <c r="B35" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="G35" s="22">
         <f>SUM(G30:G34)</f>
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H35" s="23" t="s">
         <v>18</v>
@@ -1449,57 +1583,57 @@
     </row>
     <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="33">
+      <c r="B36" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="38">
         <v>0.25</v>
       </c>
-      <c r="H36" s="33"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35" t="s">
-        <v>29</v>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="G37" s="22">
         <f>G35*(1+G36)</f>
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="H37" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="22"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>32</v>
+      <c r="A39" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="27">
+        <v>44</v>
+      </c>
+      <c r="E39" s="31">
         <v>1.0</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="45">
         <v>1000.0</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="44">
         <f>E39*F39</f>
         <v>1000</v>
       </c>
@@ -1508,25 +1642,25 @@
       </c>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="39">
+      <c r="A40" s="47"/>
+      <c r="B40" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="44">
         <f>G39-G37</f>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H40" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="31" t="s">
-        <v>35</v>
+      <c r="A41" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>8</v>
@@ -1543,20 +1677,20 @@
       <c r="F41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="25"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="27"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="30"/>
       <c r="G42" s="24">
         <v>0.0</v>
       </c>
@@ -1572,7 +1706,7 @@
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
       <c r="G43" s="22">
-        <f t="shared" ref="G43:G45" si="4">E43*F43</f>
+        <f t="shared" ref="G43:G45" si="5">E43*F43</f>
         <v>0</v>
       </c>
       <c r="H43" s="23" t="s">
@@ -1587,7 +1721,7 @@
       <c r="E44" s="20"/>
       <c r="F44" s="21"/>
       <c r="G44" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44" s="23" t="s">
@@ -1602,7 +1736,7 @@
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
       <c r="G45" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H45" s="23" t="s">
@@ -1611,8 +1745,8 @@
     </row>
     <row r="46" ht="15.0" customHeight="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="32" t="s">
-        <v>23</v>
+      <c r="B46" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="G46" s="22">
         <f>SUM(G41:G45)</f>
@@ -1624,18 +1758,18 @@
     </row>
     <row r="47" ht="15.0" customHeight="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="33">
+      <c r="B47" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="38">
         <v>0.25</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="35" t="s">
-        <v>36</v>
+      <c r="B48" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="G48" s="22">
         <f>G46*(1+G47)</f>
@@ -1646,23 +1780,23 @@
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
       <c r="H49" s="22"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="39">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44">
         <f>E50*F50</f>
         <v>0</v>
       </c>
@@ -1671,15 +1805,15 @@
       </c>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="40"/>
-      <c r="B51" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="39">
+      <c r="A51" s="47"/>
+      <c r="B51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="44">
         <f>G50-G48</f>
         <v>0</v>
       </c>
@@ -1688,8 +1822,8 @@
       </c>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="A52" s="31" t="s">
-        <v>38</v>
+      <c r="A52" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>8</v>
@@ -1706,21 +1840,21 @@
       <c r="F52" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" ht="15.0" customHeight="1">
       <c r="A53" s="17"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="27"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="20"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="47">
+      <c r="G53" s="26">
         <v>0.0</v>
       </c>
       <c r="H53" s="23" t="s">
@@ -1735,7 +1869,7 @@
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
       <c r="G54" s="22">
-        <f t="shared" ref="G54:G56" si="5">E54*F54</f>
+        <f t="shared" ref="G54:G56" si="6">E54*F54</f>
         <v>0</v>
       </c>
       <c r="H54" s="23" t="s">
@@ -1750,7 +1884,7 @@
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H55" s="23" t="s">
@@ -1765,7 +1899,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
       <c r="G56" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H56" s="23" t="s">
@@ -1774,8 +1908,8 @@
     </row>
     <row r="57" ht="15.0" customHeight="1">
       <c r="A57" s="17"/>
-      <c r="B57" s="32" t="s">
-        <v>23</v>
+      <c r="B57" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="G57" s="22">
         <f>SUM(G52:G56)</f>
@@ -1787,18 +1921,18 @@
     </row>
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="17"/>
-      <c r="B58" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="33">
+      <c r="B58" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="38">
         <v>0.25</v>
       </c>
-      <c r="H58" s="33"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
       <c r="A59" s="17"/>
-      <c r="B59" s="35" t="s">
-        <v>39</v>
+      <c r="B59" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="G59" s="22">
         <f>G57*(1+G58)</f>
@@ -1809,20 +1943,20 @@
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="36"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="27"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="30"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="27"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
       <c r="G61" s="22">
@@ -1835,10 +1969,10 @@
     </row>
     <row r="62" ht="15.0" customHeight="1">
       <c r="A62" s="17"/>
-      <c r="B62" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="39">
+      <c r="B62" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="44">
         <f>G61-G59</f>
         <v>0</v>
       </c>
@@ -1847,18 +1981,18 @@
       </c>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="56"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1869,14 +2003,14 @@
       <c r="H64" s="11"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="A65" s="53"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="54"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="58"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
       <c r="A66" s="9"/>
@@ -1889,8 +2023,8 @@
       <c r="H66" s="11"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="A67" s="31" t="s">
-        <v>42</v>
+      <c r="A67" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>8</v>
@@ -1901,66 +2035,66 @@
       <c r="D67" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="55" t="s">
-        <v>43</v>
+      <c r="E67" s="59" t="s">
+        <v>54</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="G67" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="A68" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="38">
-        <v>5000.0</v>
-      </c>
-      <c r="G68" s="57">
-        <v>5000.0</v>
-      </c>
-      <c r="H68" s="58" t="s">
+      <c r="A68" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="45">
+        <v>2000.0</v>
+      </c>
+      <c r="G68" s="61">
+        <v>2000.0</v>
+      </c>
+      <c r="H68" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="60"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="64"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="A70" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="39">
-        <f t="shared" ref="G70:G72" si="6">E70*F70</f>
+      <c r="A70" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="44">
+        <f>E70*F70</f>
         <v>0</v>
       </c>
       <c r="H70" s="23" t="s">
@@ -1968,39 +2102,38 @@
       </c>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="A71" s="62"/>
-      <c r="B71" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>32</v>
+      <c r="A71" s="66"/>
+      <c r="B71" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="27">
+        <v>61</v>
+      </c>
+      <c r="E71" s="31">
         <v>1.0</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="45">
         <v>1000.0</v>
       </c>
-      <c r="G71" s="39">
-        <f t="shared" si="6"/>
-        <v>1000</v>
+      <c r="G71" s="46">
+        <v>1000.0</v>
       </c>
       <c r="H71" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="A72" s="62"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="27"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="20"/>
       <c r="F72" s="21"/>
       <c r="G72" s="22">
-        <f t="shared" si="6"/>
+        <f>E72*F72</f>
         <v>0</v>
       </c>
       <c r="H72" s="23" t="s">
@@ -2008,31 +2141,31 @@
       </c>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G73" s="57">
+      <c r="A73" s="63"/>
+      <c r="B73" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="67">
         <f>G68-sum(G70:G72)</f>
-        <v>4000</v>
-      </c>
-      <c r="H73" s="58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H73" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="A74" s="59"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="64"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="69"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="A75" s="31" t="s">
-        <v>52</v>
+      <c r="A75" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>8</v>
@@ -2043,51 +2176,51 @@
       <c r="D75" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="55" t="s">
-        <v>43</v>
+      <c r="E75" s="59" t="s">
+        <v>54</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="43" t="s">
+      <c r="G75" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" ht="15.0" customHeight="1">
-      <c r="A76" s="56"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="57">
+      <c r="A76" s="60"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="67">
         <v>500.0</v>
       </c>
-      <c r="H76" s="58" t="s">
+      <c r="H76" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77" ht="15.0" customHeight="1">
-      <c r="A77" s="59"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="60"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="64"/>
     </row>
     <row r="78" ht="15.0" customHeight="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="39">
+      <c r="A78" s="65"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="44">
         <f>E78*F78</f>
         <v>0</v>
       </c>
@@ -2096,47 +2229,47 @@
       </c>
     </row>
     <row r="79" ht="15.0" customHeight="1">
-      <c r="A79" s="62"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="39"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="44"/>
       <c r="H79" s="23"/>
     </row>
     <row r="80" ht="15.0" customHeight="1">
-      <c r="A80" s="62"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="27"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="20"/>
       <c r="F80" s="21"/>
       <c r="G80" s="22"/>
       <c r="H80" s="23"/>
     </row>
     <row r="81" ht="15.0" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="57">
+      <c r="A81" s="63"/>
+      <c r="B81" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="67">
         <f>G76-sum(G78:G80)</f>
         <v>500</v>
       </c>
-      <c r="H81" s="58" t="s">
+      <c r="H81" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="82" ht="15.0" customHeight="1">
-      <c r="A82" s="34"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="25"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="30"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="66"/>
+      <c r="H82" s="71"/>
     </row>
     <row r="83" ht="15.0" customHeight="1">
       <c r="A83" s="9"/>
@@ -2145,36 +2278,36 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
     </row>
     <row r="84" ht="15.0" customHeight="1">
-      <c r="A84" s="68"/>
-      <c r="B84" s="69" t="s">
+      <c r="A84" s="73"/>
+      <c r="B84" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="69" t="s">
+      <c r="C84" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="70" t="s">
+      <c r="D84" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="70"/>
-      <c r="F84" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="G84" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="H84" s="73"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="78"/>
     </row>
     <row r="85" ht="15.0" customHeight="1">
       <c r="A85" s="17"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="27"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="20"/>
-      <c r="F85" s="45">
+      <c r="F85" s="27">
         <v>0.0</v>
       </c>
       <c r="G85" s="22">
@@ -2189,28 +2322,28 @@
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G86" s="47">
+      <c r="F86" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" s="26">
         <v>0.0</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" ht="15.0" customHeight="1">
-      <c r="A87" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" s="75"/>
-      <c r="H87" s="75"/>
+      <c r="A87" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" s="80"/>
+      <c r="H87" s="80"/>
     </row>
     <row r="88" ht="15.0" customHeight="1">
-      <c r="A88" s="76"/>
+      <c r="A88" s="81"/>
     </row>
     <row r="89" ht="15.0" customHeight="1">
-      <c r="A89" s="77"/>
+      <c r="A89" s="82"/>
     </row>
     <row r="90" ht="15.75" customHeight="1"/>
     <row r="91" ht="15.75" customHeight="1"/>
@@ -3161,6 +3294,9 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
